--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPMW_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPMW_General.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>1.40982501785926</v>
+        <v>0.8299708573007165</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>1.489903633896171</v>
+        <v>0.8283628986472749</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>1.397661323590862</v>
+        <v>0.8322747775657097</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>1.39167447515791</v>
+        <v>0.8456505654507867</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>1.611972106168202</v>
+        <v>0.8416687413508381</v>
       </c>
     </row>
   </sheetData>
